--- a/Code/SampleRun_Environment_Solar/100Scens/Results_100FINAL.xlsx
+++ b/Code/SampleRun_Environment_Solar/100Scens/Results_100FINAL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\charl\OneDrive\Dokumente\A_Uni\HiWi\ArticleSubgradient\Code\SampleRun_Environment_Solar\100Scens\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF24468F-1A57-4F25-A375-ECECA39DD729}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A35222D7-579E-47AB-9EB7-7F870CB940B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="combined_results_100" sheetId="2" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Omega</t>
   </si>
@@ -107,12 +107,34 @@
   <si>
     <t xml:space="preserve">tol07: (2,1), (2,3), (2,4), (5,1), (5,2), (5,3), (5,4), (6,1), (6,2), (6,3), (6,4) </t>
   </si>
+  <si>
+    <t>tol 0.01</t>
+  </si>
+  <si>
+    <t>Median of Naive Gap</t>
+  </si>
+  <si>
+    <t>tol 0.03</t>
+  </si>
+  <si>
+    <t>tol 0.05</t>
+  </si>
+  <si>
+    <t>tol 0.07</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -138,13 +160,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Prozent" xfId="1" builtinId="5"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -506,7 +531,7 @@
   <dimension ref="A1:R481"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="R9" sqref="R9"/>
+      <selection activeCell="R14" sqref="R14:R17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1122,6 +1147,9 @@
       <c r="O13">
         <v>278.53877</v>
       </c>
+      <c r="Q13" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A14">
@@ -1169,6 +1197,13 @@
       <c r="O14">
         <v>273.90879000000001</v>
       </c>
+      <c r="Q14" t="s">
+        <v>20</v>
+      </c>
+      <c r="R14" s="1">
+        <f>MEDIAN(H2,H8,H10,H20,H27,H33,H38,H42,H50,H57,H63,H68,H74,H80,H86,H92,H98,H104,H110,H116)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B15">
@@ -1213,6 +1248,13 @@
       <c r="O15">
         <v>273.90879000000001</v>
       </c>
+      <c r="Q15" t="s">
+        <v>22</v>
+      </c>
+      <c r="R15" s="1">
+        <f>MEDIAN(H122,H128,H135,H140,H146,H152,H159,H164,H170,H175,H182,H188,H194,H200,H206,H212,H218,H224,H230,H236)</f>
+        <v>2.7999999999999998E-4</v>
+      </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B16">
@@ -1257,8 +1299,15 @@
       <c r="O16">
         <v>273.90879000000001</v>
       </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="Q16" t="s">
+        <v>23</v>
+      </c>
+      <c r="R16" s="1">
+        <f>MEDIAN(H242,H248,H254,H260,H266,H272,H278,H284,H290,H296,H302,H308,H314,H320,H326,H332,H338,H344,H350,H356)</f>
+        <v>5.4900000000000001E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B17">
         <v>100</v>
       </c>
@@ -1301,8 +1350,15 @@
       <c r="O17">
         <v>273.90879000000001</v>
       </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="Q17" t="s">
+        <v>24</v>
+      </c>
+      <c r="R17" s="1">
+        <f>MEDIAN(H362,H368,H374,H380,H386,H392,H398,H404,H410,H416,H422,H428,H434,H440,H446,H452,H458,H464,H470,H476)</f>
+        <v>8.1700000000000002E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B18">
         <v>100</v>
       </c>
@@ -1346,7 +1402,7 @@
         <v>273.90879000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B19">
         <v>100</v>
       </c>
@@ -1390,7 +1446,7 @@
         <v>273.90879000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>12</v>
       </c>
@@ -1437,7 +1493,7 @@
         <v>273.49889000000002</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B21">
         <v>100</v>
       </c>
@@ -1481,7 +1537,7 @@
         <v>273.49889000000002</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B22">
         <v>100</v>
       </c>
@@ -1525,7 +1581,7 @@
         <v>273.49889000000002</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B23">
         <v>100</v>
       </c>
@@ -1569,7 +1625,7 @@
         <v>273.49889000000002</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B24">
         <v>100</v>
       </c>
@@ -1613,7 +1669,7 @@
         <v>273.49889000000002</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B25">
         <v>100</v>
       </c>
@@ -1657,7 +1713,7 @@
         <v>273.49889000000002</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>13</v>
       </c>
@@ -1704,7 +1760,7 @@
         <v>273.26862999999997</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B27">
         <v>100</v>
       </c>
@@ -1748,7 +1804,7 @@
         <v>273.26862999999997</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B28">
         <v>100</v>
       </c>
@@ -1792,7 +1848,7 @@
         <v>273.26862999999997</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B29">
         <v>100</v>
       </c>
@@ -1836,7 +1892,7 @@
         <v>273.26862999999997</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B30">
         <v>100</v>
       </c>
@@ -1880,7 +1936,7 @@
         <v>273.26862999999997</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B31">
         <v>100</v>
       </c>
@@ -1924,7 +1980,7 @@
         <v>273.26862999999997</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>14</v>
       </c>
